--- a/out/CE/Cold/C/outk_50algorithm_16.xlsx
+++ b/out/CE/Cold/C/outk_50algorithm_16.xlsx
@@ -34,12 +34,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +62,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CV10"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CV10"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="CW1" sqref="CW1:CW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:101">
       <c r="A1">
         <v>0.76258000000000004</v>
       </c>
@@ -663,8 +672,12 @@
       <c r="CV1">
         <v>0.77093999999999996</v>
       </c>
+      <c r="CW1" s="1">
+        <f>AVERAGE(A1:CV1)</f>
+        <v>0.78137340000000011</v>
+      </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:101">
       <c r="A2">
         <v>0.73048000000000002</v>
       </c>
@@ -965,8 +978,12 @@
       <c r="CV2">
         <v>0.71162000000000003</v>
       </c>
+      <c r="CW2" s="1">
+        <f t="shared" ref="CW2:CW10" si="0">AVERAGE(A2:CV2)</f>
+        <v>0.72893260000000015</v>
+      </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:101">
       <c r="A3">
         <v>0.70476000000000005</v>
       </c>
@@ -1267,8 +1284,12 @@
       <c r="CV3">
         <v>0.69423999999999997</v>
       </c>
+      <c r="CW3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69486860000000006</v>
+      </c>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:101">
       <c r="A4">
         <v>0.68493999999999999</v>
       </c>
@@ -1569,8 +1590,12 @@
       <c r="CV4">
         <v>0.67522000000000004</v>
       </c>
+      <c r="CW4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66665819999999987</v>
+      </c>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:101">
       <c r="A5">
         <v>0.64781999999999995</v>
       </c>
@@ -1871,8 +1896,12 @@
       <c r="CV5">
         <v>0.66561999999999999</v>
       </c>
+      <c r="CW5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64482839999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:101">
       <c r="A6">
         <v>0.63090000000000002</v>
       </c>
@@ -2173,8 +2202,12 @@
       <c r="CV6">
         <v>0.59840000000000004</v>
       </c>
+      <c r="CW6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62674700000000028</v>
+      </c>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:101">
       <c r="A7">
         <v>0.61956</v>
       </c>
@@ -2475,8 +2508,12 @@
       <c r="CV7">
         <v>0.61624000000000001</v>
       </c>
+      <c r="CW7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61330020000000007</v>
+      </c>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:101">
       <c r="A8">
         <v>0.60287999999999997</v>
       </c>
@@ -2777,8 +2814,12 @@
       <c r="CV8">
         <v>0.60748000000000002</v>
       </c>
+      <c r="CW8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60274680000000014</v>
+      </c>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:101">
       <c r="A9">
         <v>0.59084000000000003</v>
       </c>
@@ -3079,8 +3120,12 @@
       <c r="CV9">
         <v>0.58689999999999998</v>
       </c>
+      <c r="CW9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59073060000000011</v>
+      </c>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:101">
       <c r="A10">
         <v>0.59384000000000003</v>
       </c>
@@ -3380,6 +3425,10 @@
       </c>
       <c r="CV10">
         <v>0.58664000000000005</v>
+      </c>
+      <c r="CW10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58160699999999987</v>
       </c>
     </row>
   </sheetData>
